--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>Book ID</t>
   </si>
@@ -95,6 +95,45 @@
   </si>
   <si>
     <t xml:space="preserve">John Shalamon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejila </t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benny </t>
+  </si>
+  <si>
+    <t>2668423694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan brijeshkar </t>
+  </si>
+  <si>
+    <t>7397767508</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>Alanbrijeshkar</t>
+  </si>
+  <si>
+    <t>7397767505</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Gpay</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -471,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,6 +813,146 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
   <si>
     <t>Book ID</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t xml:space="preserve">John Shalamon </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>As ediyed</t>
+  </si>
+  <si>
+    <t>Will it work</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,6 +783,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>Book ID</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>W. Vishalin</t>
+  </si>
+  <si>
+    <t>9345394845</t>
+  </si>
+  <si>
+    <t>netlify</t>
+  </si>
+  <si>
+    <t>1111111111</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,6 +965,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
   <si>
     <t>Book ID</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,6 +1005,86 @@
         <v>11</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
